--- a/2des/bcd/aula03/academia_dados.xlsx
+++ b/2des/bcd/aula03/academia_dados.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2021\2des\bcd\aula03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wellington.martins\Desktop\github\senai2021\2des\bcd\aula03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="3" r:id="rId1"/>
     <sheet name="Telefones" sheetId="7" r:id="rId2"/>
     <sheet name="Exercícios" sheetId="8" r:id="rId3"/>
+    <sheet name="Fichas" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="84">
   <si>
     <t>Ana de Souza de Oliveira</t>
   </si>
@@ -200,6 +201,84 @@
   </si>
   <si>
     <t>Panturrilha</t>
+  </si>
+  <si>
+    <t>Esteira</t>
+  </si>
+  <si>
+    <t>Caminhada</t>
+  </si>
+  <si>
+    <t>Corrida</t>
+  </si>
+  <si>
+    <t>Pedalada</t>
+  </si>
+  <si>
+    <t>Bicicleta Ergométrica</t>
+  </si>
+  <si>
+    <t>Aquecimento</t>
+  </si>
+  <si>
+    <t>dia_semana</t>
+  </si>
+  <si>
+    <t>objetivo</t>
+  </si>
+  <si>
+    <t>série</t>
+  </si>
+  <si>
+    <t>Segunda-feira</t>
+  </si>
+  <si>
+    <t>Terça-feira</t>
+  </si>
+  <si>
+    <t>Quarta-feira</t>
+  </si>
+  <si>
+    <t>Quinta-feira</t>
+  </si>
+  <si>
+    <t>Sexta-feira</t>
+  </si>
+  <si>
+    <t>Ganhar massa muscular</t>
+  </si>
+  <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>4R decrescente 12 10 8 6</t>
+  </si>
+  <si>
+    <t>10 min</t>
+  </si>
+  <si>
+    <t>4R constante 8 8 8 8</t>
+  </si>
+  <si>
+    <t>Definição Muscular</t>
+  </si>
+  <si>
+    <t>4R decrescente 20 15 10 5</t>
+  </si>
+  <si>
+    <t>4R constante 15 15 15</t>
+  </si>
+  <si>
+    <t>20 min</t>
+  </si>
+  <si>
+    <t>Perda de peso</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>40 min</t>
   </si>
 </sst>
 </file>
@@ -252,12 +331,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,16 +620,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -776,10 +854,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +869,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -979,6 +1057,9 @@
       <c r="B14" t="s">
         <v>51</v>
       </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
       <c r="D14" t="s">
         <v>37</v>
       </c>
@@ -1011,7 +1092,852 @@
         <v>38</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2des/bcd/aula03/academia_dados.xlsx
+++ b/2des/bcd/aula03/academia_dados.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wellington.martins\Desktop\github\senai2021\2des\bcd\aula03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2021\2des\bcd\aula03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="3" r:id="rId1"/>
@@ -618,9 +618,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -630,7 +632,7 @@
     <col min="4" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -646,8 +648,9 @@
       <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -664,7 +667,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -681,7 +684,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -698,7 +701,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -715,7 +718,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -732,7 +735,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -759,7 +762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -856,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C16"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,9 +1147,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1154,7 +1159,7 @@
     <col min="5" max="5" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1171,7 +1176,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1188,7 +1193,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1205,7 +1210,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1221,8 +1226,9 @@
       <c r="E4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1239,7 +1245,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1256,7 +1262,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1273,7 +1279,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1289,8 +1295,9 @@
       <c r="E8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1307,7 +1314,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1324,7 +1331,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1341,7 +1348,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1357,8 +1364,9 @@
       <c r="E12" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1374,8 +1382,9 @@
       <c r="E13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1392,7 +1401,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1409,7 +1418,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1426,7 +1435,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1443,7 +1452,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1459,8 +1468,9 @@
       <c r="E18" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1476,8 +1486,9 @@
       <c r="E19" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1494,7 +1505,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1511,7 +1522,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1528,7 +1539,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1545,7 +1556,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1562,7 +1573,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1579,7 +1590,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1596,7 +1607,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1613,7 +1624,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1630,7 +1641,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1647,7 +1658,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1664,7 +1675,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1681,7 +1692,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
